--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\UiPath\MailMonitoringBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\UiPath\Email_Monitoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C748B6-A9B1-48FD-9CBA-EE79557351AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293347B-B96D-427D-9E11-A2147E857860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\UiPath\Email_Monitoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293347B-B96D-427D-9E11-A2147E857860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A300A3D7-DC7A-4133-B1CA-474515C2DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,34 +171,34 @@
     <t>Inbox</t>
   </si>
   <si>
+    <t>MailFolder</t>
+  </si>
+  <si>
+    <t>MailTop</t>
+  </si>
+  <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>IACET client Details</t>
+  </si>
+  <si>
+    <t>ProcessFolder</t>
+  </si>
+  <si>
+    <t>IACET Folder</t>
+  </si>
+  <si>
+    <t>MailBody</t>
+  </si>
+  <si>
+    <t>RetryMax</t>
+  </si>
+  <si>
+    <t>Hi Team,Mail not received kindly check it</t>
+  </si>
+  <si>
     <t>sonukr2.0@outlook.com</t>
-  </si>
-  <si>
-    <t>MailFolder</t>
-  </si>
-  <si>
-    <t>MailTop</t>
-  </si>
-  <si>
-    <t>MailSubject</t>
-  </si>
-  <si>
-    <t>IACET client Details</t>
-  </si>
-  <si>
-    <t>ProcessFolder</t>
-  </si>
-  <si>
-    <t>IACET Folder</t>
-  </si>
-  <si>
-    <t>MailBody</t>
-  </si>
-  <si>
-    <t>Mail not received kindly check it</t>
-  </si>
-  <si>
-    <t>RetryMax</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -673,12 +673,12 @@
         <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6">
         <v>30</v>
@@ -694,23 +694,23 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\UiPath\Email_Monitoring\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A300A3D7-DC7A-4133-B1CA-474515C2DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE18D7-DCC3-4189-8846-A3E362E5DD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
